--- a/Group03_Document_StakeholderMapping_Assignment 1Spring2023.xlsx
+++ b/Group03_Document_StakeholderMapping_Assignment 1Spring2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cometmail-my.sharepoint.com/personal/ajk200003_utdallas_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7a3a4ae352f7fd1/Documents/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15F2F30-AEF6-4ACD-BF65-7AB01ACA4D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{853632D7-E465-420C-A3E3-8266E2C4DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="HTML_OS" hidden="1">1</definedName>
     <definedName name="HTML_PathFileMac" hidden="1">"Projects R:!www.atlsysguild.com:GuildSite:Robs:stakeanalysis.html"</definedName>
     <definedName name="HTML_Title" hidden="1">"Stakeholder Analysis"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">StakeholderMapping!$A$1:$C$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">StakeholderMapping!$A$1:$C$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">StakeholderMapping!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -51,10 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>Volere Stakeholder Analysis Template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
   <si>
     <t>Stakeholder Functional Group</t>
   </si>
@@ -73,7 +70,7 @@
       </rPr>
       <t>(Why does this stakeholder need to be involved? Consider benefits and Impacts)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Customer 
@@ -97,11 +94,6 @@
     <t>Marketing VP</t>
   </si>
   <si>
-    <t>•Promote project to generate new users
-•Provide input on how best to implement user store for profitability
-•Identify potential new users</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -109,13 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">•Provide any necessary information on platform, tools, software, servers, etc to Project Team </t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Train employees in maintenance of project
-</t>
   </si>
   <si>
     <t>Security Lead</t>
@@ -150,30 +135,392 @@
 •Manage unforeseen potential legal difficulties</t>
   </si>
   <si>
-    <t>Customer Service</t>
-  </si>
-  <si>
-    <t>•Provide Customer Service to aid users after project launch</t>
-  </si>
-  <si>
-    <t>Core Project Team</t>
-  </si>
-  <si>
-    <t>•Update Customer on project progress and milestones
+    <t>Volere Stakeholder Analysis</t>
+  </si>
+  <si>
+    <t>Stakeholder Name</t>
+  </si>
+  <si>
+    <t>Beatbox Core Project Team</t>
+  </si>
+  <si>
+    <t>Divisions of High Sodium Industries</t>
+  </si>
+  <si>
+    <t>Interfacing Technology</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Maintenance Operator</t>
+  </si>
+  <si>
+    <t>Veruca Salt, CEO</t>
+  </si>
+  <si>
+    <t>Core Team Member</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Kennedy Robinson</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Requirements Analyst</t>
+  </si>
+  <si>
+    <t>Systems Analyst</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Technical Writer</t>
+  </si>
+  <si>
+    <t>Systems Architect</t>
+  </si>
+  <si>
+    <t>Alisha Matthews</t>
+  </si>
+  <si>
+    <t>Jin Dewitt</t>
+  </si>
+  <si>
+    <t>Sam Hewers</t>
+  </si>
+  <si>
+    <t>Ronald Singh</t>
+  </si>
+  <si>
+    <t>Peter Ahn</t>
+  </si>
+  <si>
+    <t>Operational Work Area</t>
+  </si>
+  <si>
+    <t>Hardware Maintainer</t>
+  </si>
+  <si>
+    <t>Software Maintainer</t>
+  </si>
+  <si>
+    <t>•Coordinate with HSI team to establish guidelines for
+post-launch maintenance of hardware</t>
+  </si>
+  <si>
+    <t>•Coordinate with HSI team to establish guidelines for
+post-launch maintenance of software</t>
+  </si>
+  <si>
+    <t>Normal Operator</t>
+  </si>
+  <si>
+    <t>Independent subscriber</t>
+  </si>
+  <si>
+    <t>Operational Support</t>
+  </si>
+  <si>
+    <t>Help Desk</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>•Train customer service representatives in providing
+operational assistance to subscribers</t>
+  </si>
+  <si>
+    <t>•Update Project Sponsor on project progress and milestones
 •Deliver milestones in a timely fashion with acceptable levels of quality
-•Notify Customer of any difficulties or delays on the project
-•Test product to ensure functionality before hand off
-•Provide documentation in a Project Manual 
-•Provide training plan
-•Provide some level of support post-launch for project success
-•Provide Disaster Recovery Plan in case of emergency</t>
+•Coordinate and lead members of core project team</t>
+  </si>
+  <si>
+    <t>•Investigate current work done by High Sodium Industries
+•Schedule and conduct interviews
+•Gather relevant artifacts and documents</t>
+  </si>
+  <si>
+    <t>•Understand the nature of the current work done by High Sodium Industries
+•Scope out requirements for the work and product
+•Find new, better ways to conduct work</t>
+  </si>
+  <si>
+    <t>•Investigate the current technology implemented by High Sodium Industries
+•Communicate technology requirements and specifications to development team</t>
+  </si>
+  <si>
+    <t>•Test product to ensure complete functionality before hand off
+•Test product to ensure the minimal absence of bugs
+•Compile and present testing report to client</t>
+  </si>
+  <si>
+    <t>•Provide documentation in a Project Manual
+•Investigate and write Disaster Recovery Plan
+•Investigate and write Training Plan
+•Review documentation for clarity</t>
+  </si>
+  <si>
+    <t>•Devise and configure product requirements to meet business needs</t>
+  </si>
+  <si>
+    <t>Back-end Developer</t>
+  </si>
+  <si>
+    <t>Front-end Developer</t>
+  </si>
+  <si>
+    <t>•Implement features specified in SOW, including but 
+not limited to: Neural Network, Recorder, Clip Player, User Accounts, Site Search, Online Databases, SSO service, Advertiser Content
+•Implement additional features needed to fulfill requirements</t>
+  </si>
+  <si>
+    <t>•Implement features specified in SOW, including but 
+not limited to: User Interface, Site/App Navigation, 
+End-User Profile, User Clip Generator, User Store, 
+User Store, Search Page, Clip Player, Explore Page
+•Implement additional features needed to fulfill requirements</t>
+  </si>
+  <si>
+    <t>Jackie Kim, Andrew Slater, Adarsh Harris</t>
+  </si>
+  <si>
+    <t>Blaine Mando, Sydney Oker, Al Simmons, Brynn Walker, Alex Heardy</t>
+  </si>
+  <si>
+    <t>Tati Dapur, Roald Grunn, Vic Tracy, Gina Reynolds, Ernest Lee</t>
+  </si>
+  <si>
+    <t>•Support installation of software/platforms pertinent to 
+solution development by core project team
+•Aid in installation and troubleshooting of antivirus and backup software</t>
+  </si>
+  <si>
+    <t>•Store, search and sort database records
+•Enable neural network functionality</t>
+  </si>
+  <si>
+    <t>•Product end user
+•Offer input to be utilized in product requirements</t>
+  </si>
+  <si>
+    <t>Third-party Customer company</t>
+  </si>
+  <si>
+    <t>•Offer input to be utilized in product requirements</t>
+  </si>
+  <si>
+    <t>•Provide assistance and troubleshooting to end users
+post-launch</t>
+  </si>
+  <si>
+    <t>Daniel Kim</t>
+  </si>
+  <si>
+    <t>Chiaki Voor</t>
+  </si>
+  <si>
+    <t>Elliot Remi</t>
+  </si>
+  <si>
+    <t>Rajul Narani</t>
+  </si>
+  <si>
+    <t>•Promote project to generate new users
+•Design user store interface for profitability
+•Identify potential new users</t>
+  </si>
+  <si>
+    <t>Marcus Wavers</t>
+  </si>
+  <si>
+    <t>Thomas Bryon</t>
+  </si>
+  <si>
+    <t>Mike Dingess</t>
+  </si>
+  <si>
+    <t>Sharon Zahid</t>
+  </si>
+  <si>
+    <t>Jude Hope</t>
+  </si>
+  <si>
+    <t>Head of Brand Design</t>
+  </si>
+  <si>
+    <t>Head of Social Media</t>
+  </si>
+  <si>
+    <t>Vivian Lee</t>
+  </si>
+  <si>
+    <t>Timothy Beard</t>
+  </si>
+  <si>
+    <t>•Coordinate social media campaign to promote product
+•Conduct market research to identify new users</t>
+  </si>
+  <si>
+    <t>•Ensure product consistency with HSI brand
+•Provide guidance on use and editing of album and artist images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>Senior Systems Administrator</t>
+  </si>
+  <si>
+    <t>Hardware Support Lead</t>
+  </si>
+  <si>
+    <t>Ray Gunn</t>
+  </si>
+  <si>
+    <t>Bree Harvers</t>
+  </si>
+  <si>
+    <t>•Provide any necessary information on servers, tools, etc to Project Team
+•Maintain hardware post-launch</t>
+  </si>
+  <si>
+    <t>•Provide any necessary information on platform, tools, software, servers, etc to Project Team 
+•Maintain software post-launch</t>
+  </si>
+  <si>
+    <t>Coordinator of Accounts</t>
+  </si>
+  <si>
+    <t>Senior Audits Analyst</t>
+  </si>
+  <si>
+    <t>Data Integrity Manager</t>
+  </si>
+  <si>
+    <t>Ymir Trent</t>
+  </si>
+  <si>
+    <t>Ana Nguyen</t>
+  </si>
+  <si>
+    <t>William Obos</t>
+  </si>
+  <si>
+    <t>•Coordinate and manage payment for use of Amazon S3 storage</t>
+  </si>
+  <si>
+    <t>•Manage relations with bank</t>
+  </si>
+  <si>
+    <t>•Ensures data security of High Sodium Industries servers</t>
+  </si>
+  <si>
+    <t>Wider Environment</t>
+  </si>
+  <si>
+    <t>External Consultant</t>
+  </si>
+  <si>
+    <t>Negative Stakeholder</t>
+  </si>
+  <si>
+    <t>Copyright Law Consultant</t>
+  </si>
+  <si>
+    <t>Mahia Jens</t>
+  </si>
+  <si>
+    <t>AWS Consultant</t>
+  </si>
+  <si>
+    <t>Legal Consultant</t>
+  </si>
+  <si>
+    <t>Customer Representative</t>
+  </si>
+  <si>
+    <t>Third Party Consultant</t>
+  </si>
+  <si>
+    <t>Publishing Consultant</t>
+  </si>
+  <si>
+    <t>Competing Record Companies</t>
+  </si>
+  <si>
+    <t>Various Artists</t>
+  </si>
+  <si>
+    <t>•Ensure compliance to federal and local laws
+•License user-generated clips</t>
+  </si>
+  <si>
+    <t>•License user-generated clips</t>
+  </si>
+  <si>
+    <t>Marianne Stepp</t>
+  </si>
+  <si>
+    <t>•Ensure compliance to AWS Terms and Conditions
+•Offer guidelines for best practices</t>
+  </si>
+  <si>
+    <t>Anani Soofi</t>
+  </si>
+  <si>
+    <t>•Offer guidance regarding intellectual property and technology</t>
+  </si>
+  <si>
+    <t>Bilal Aldright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Offer guidance regarding end user business needs </t>
+  </si>
+  <si>
+    <t>Felicity Barnes</t>
+  </si>
+  <si>
+    <t>•Offer guidance regarding professional loop musicians</t>
+  </si>
+  <si>
+    <t>Flynn Dahl</t>
+  </si>
+  <si>
+    <t>•Offer guidance regarding music producer business needs</t>
+  </si>
+  <si>
+    <t>•Offer guidance regarding professional studio engineer business needs</t>
+  </si>
+  <si>
+    <t>Aldrin Anan</t>
+  </si>
+  <si>
+    <t>•Pre-empt potential foul play or legal difficulties</t>
+  </si>
+  <si>
+    <t>•Offer guidance regarding difficulties/controversies of 
+AI-generated music
+•Pre-empt potential foul play or legal difficulties</t>
+  </si>
+  <si>
+    <t>Mahi Jens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,13 +534,6 @@
     <font>
       <sz val="10"/>
       <color indexed="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -226,13 +566,60 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFDD0806"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -290,43 +683,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,6 +857,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,152 +1163,644 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.649999999999999">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:4" ht="17.7" x14ac:dyDescent="0.6">
+      <c r="A1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="68.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="73.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="73.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="24.6">
-      <c r="A4" s="9" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="45.6">
-      <c r="A5" s="12" t="s">
+      <c r="B26" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="45.6">
-      <c r="A6" s="12" t="s">
+      <c r="B27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C27" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B30" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="34.15">
-      <c r="A7" s="12" t="s">
+      <c r="C30" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C33" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="22.9">
-      <c r="A8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="34" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="45.6">
-      <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="C34" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="49.2" x14ac:dyDescent="0.4">
+      <c r="A38" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="68.45">
-      <c r="A10" s="12" t="s">
+      <c r="B38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C38" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="79.900000000000006">
-      <c r="A11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:3" ht="22.9">
-      <c r="A13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="159.6">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.234251969" bottom="0.234251969" header="1.1811024E-2" footer="1.1811024E-2"/>
   <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -867,6 +1808,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAF9DF8989A7664FB91506D5359D0271" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8008e6499a43e4d094251610f9006f20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7a3f92c-5ad8-4e1b-b2e8-7e5a01e2dd38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50aae49fdc423b7e3f16ce3db89711ac" ns3:_="">
     <xsd:import namespace="b7a3f92c-5ad8-4e1b-b2e8-7e5a01e2dd38"/>
@@ -998,29 +1954,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75D215B-24EB-4DA6-A4C5-7B72AFF2DA27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD24C55-D8BB-4878-9397-F6B455AB4AFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B991A0DC-3BAD-450E-9104-566E2220ED71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B991A0DC-3BAD-450E-9104-566E2220ED71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b7a3f92c-5ad8-4e1b-b2e8-7e5a01e2dd38"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD24C55-D8BB-4878-9397-F6B455AB4AFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D75D215B-24EB-4DA6-A4C5-7B72AFF2DA27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b7a3f92c-5ad8-4e1b-b2e8-7e5a01e2dd38"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>